--- a/Bazilev_Channel_DNS.xlsx
+++ b/Bazilev_Channel_DNS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -42,12 +42,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -56,13 +78,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -71,19 +86,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,6 +125,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -110,6 +148,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -118,29 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -149,37 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,187 +194,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,16 +389,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,6 +414,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,26 +451,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,23 +485,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,130 +508,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,7 +958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -979,298 +979,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1.00612244897959</v>
+        <v>0.106022203330167</v>
       </c>
       <c r="B2">
-        <v>0.0383435582822038</v>
+        <v>0.000342583076395897</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1.00612244897959</v>
+        <v>0.122712523985119</v>
       </c>
       <c r="B3">
-        <v>0.0383435582822038</v>
+        <v>0.00110387880172169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.27142857142857</v>
+        <v>0.148398178896756</v>
       </c>
       <c r="B4">
-        <v>0.0383435582822038</v>
+        <v>-0.033877659776941</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>6.8976555652936</v>
+        <v>0.179460244029731</v>
       </c>
       <c r="B5">
-        <v>0.115030674846622</v>
+        <v>0.03905447070915</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>10.5221453612119</v>
+        <v>0.213874363543395</v>
       </c>
       <c r="B6">
-        <v>0.115030674846622</v>
+        <v>0.111910471622699</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>13.9227103418054</v>
+        <v>0.26437611857491</v>
       </c>
       <c r="B7">
-        <v>0.230061349693247</v>
+        <v>0.113014350424421</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>17.774599348942</v>
+        <v>0.326802758941012</v>
       </c>
       <c r="B8">
-        <v>0.268404907975458</v>
+        <v>0.18606067526931</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>22.4219512958557</v>
+        <v>0.367349425579696</v>
       </c>
       <c r="B9">
-        <v>0.421779141104291</v>
+        <v>0.222640934871147</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>26.0481782897208</v>
+        <v>0.428297985548506</v>
       </c>
       <c r="B10">
-        <v>0.49846625766871</v>
+        <v>0.22344029538274</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>30.4733426192562</v>
+        <v>0.506712834630877</v>
       </c>
       <c r="B11">
-        <v>0.843558282208587</v>
+        <v>0.368200677553197</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>33.9889101039188</v>
+        <v>0.640249438626305</v>
       </c>
       <c r="B12">
-        <v>1.03527607361962</v>
+        <v>0.477332419778466</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>37.6177428947039</v>
+        <v>0.889623710246182</v>
       </c>
       <c r="B13">
-        <v>1.22699386503067</v>
+        <v>0.838757565376269</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>41.0261252660573</v>
+        <v>1.12407075989833</v>
       </c>
       <c r="B14">
-        <v>1.68711656441717</v>
+        <v>1.0198317536447</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>44.4319018404908</v>
+        <v>1.39968963326129</v>
       </c>
       <c r="B15">
-        <v>2.03220858895705</v>
+        <v>1.30874348140535</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>47.7296247026417</v>
+        <v>1.74288945087081</v>
       </c>
       <c r="B16">
-        <v>2.60736196319017</v>
+        <v>1.63362643218758</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>51.2582211719043</v>
+        <v>2.38658978685858</v>
       </c>
       <c r="B17">
-        <v>3.37423312883435</v>
+        <v>2.17483156332077</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>53.650690184049</v>
+        <v>2.92864456462524</v>
       </c>
       <c r="B18">
-        <v>3.98773006134969</v>
+        <v>2.67949449963838</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>56.5005634155502</v>
+        <v>3.46483485573037</v>
       </c>
       <c r="B19">
-        <v>4.79294478527607</v>
+        <v>3.21993833504624</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>59.1204316389132</v>
+        <v>4.70994540447575</v>
       </c>
       <c r="B20">
-        <v>5.44478527607361</v>
+        <v>4.40858741578166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>61.6348519469137</v>
+        <v>5.86481028691437</v>
       </c>
       <c r="B21">
-        <v>6.44171779141104</v>
+        <v>5.34498115793079</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>64.0351383498184</v>
+        <v>7.04075200660645</v>
       </c>
       <c r="B22">
-        <v>7.40030674846625</v>
+        <v>6.20924213010544</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>67.003488481282</v>
+        <v>9.22740037736477</v>
       </c>
       <c r="B23">
-        <v>8.43558282208588</v>
+        <v>7.90129800921167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>69.5196459872292</v>
+        <v>11.077568505097</v>
       </c>
       <c r="B24">
-        <v>9.50920245398772</v>
+        <v>8.94541509649423</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>72.2605969074746</v>
+        <v>12.8214312491253</v>
       </c>
       <c r="B25">
-        <v>10.5061349693251</v>
+        <v>9.88142819078071</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>75.2272098409916</v>
+        <v>16.2003280726413</v>
       </c>
       <c r="B26">
-        <v>11.4647239263803</v>
+        <v>10.8178980625023</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>78.7584121071741</v>
+        <v>18.7506303843729</v>
       </c>
       <c r="B27">
-        <v>12.3466257668711</v>
+        <v>11.6100262647025</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>82.0630837611118</v>
+        <v>22.675431258708</v>
       </c>
       <c r="B28">
-        <v>13.2285276073619</v>
+        <v>12.4023828556202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>85.5899430324277</v>
+        <v>26.245062966121</v>
       </c>
       <c r="B29">
-        <v>13.9187116564417</v>
+        <v>12.9786837196909</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>88.3213393639664</v>
+        <v>31.7385660625428</v>
       </c>
       <c r="B30">
-        <v>14.4938650306748</v>
+        <v>13.5192417494575</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>91.1642638036809</v>
+        <v>38.3819454732013</v>
       </c>
       <c r="B31">
-        <v>14.9923312883435</v>
+        <v>14.0238285562026</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>95.1415785025666</v>
+        <v>45.0783751973681</v>
       </c>
       <c r="B32">
-        <v>15.5674846625766</v>
+        <v>14.6002055498458</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>98.3251674596219</v>
+        <v>61.2775774149623</v>
       </c>
       <c r="B33">
-        <v>16.1042944785276</v>
+        <v>15.285257508279</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>102.649226868661</v>
+        <v>78.5666245938895</v>
       </c>
       <c r="B34">
-        <v>16.9861963190184</v>
+        <v>15.7901488333143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>105.267357894077</v>
+        <v>95.708912367713</v>
       </c>
       <c r="B35">
-        <v>17.5613496932515</v>
+        <v>16.3667161508888</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>107.8820145236</v>
+        <v>119.176458663436</v>
       </c>
       <c r="B36">
-        <v>17.9831288343558</v>
+        <v>16.8714552167789</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>111.752144109177</v>
+        <v>144.121959671885</v>
       </c>
       <c r="B37">
-        <v>18.8266871165644</v>
+        <v>17.5558981386319</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>114.824204958056</v>
+        <v>164.389099276047</v>
       </c>
       <c r="B38">
-        <v>19.4401840490797</v>
+        <v>17.9162955350005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>190.267704822016</v>
+      </c>
+      <c r="B39">
+        <v>18.2767690609417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>236.9207913636</v>
+      </c>
+      <c r="B40">
+        <v>19.0333066879829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>278.255940220712</v>
+      </c>
+      <c r="B41">
+        <v>19.6096836816261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>338.968022821881</v>
+      </c>
+      <c r="B42">
+        <v>19.9344524380495</v>
       </c>
     </row>
   </sheetData>
